--- a/src/test/resources/testData/TaskCreationTestData.xlsx
+++ b/src/test/resources/testData/TaskCreationTestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Advanced_Selenium_Test_Automation_Framework\src\test\resources\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\KhoaLuan\AUT\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -474,7 +474,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -558,7 +558,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
